--- a/P0019/09_FICHAS/N3-FD-General.xlsx
+++ b/P0019/09_FICHAS/N3-FD-General.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0019\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0019/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C137C41B-25D9-488F-A47C-B65358FFED0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -78,6 +89,9 @@
     <t>P0019</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>R0001</t>
   </si>
   <si>
@@ -99,9 +113,6 @@
     <t>MP4</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>DESCONOCIDO</t>
   </si>
   <si>
@@ -117,9 +128,6 @@
     <t>Presentaciones_power point</t>
   </si>
   <si>
-    <t>s3://foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentaciones_power point</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convenio No.1069-2011 </t>
   </si>
   <si>
@@ -138,6 +146,9 @@
     <t>Informes de avance, Modelación 2D, Presentaciones, Rompedero Nuevo Mundo, Rompedero Santa María, Modelación matemática</t>
   </si>
   <si>
+    <t>PR0002</t>
+  </si>
+  <si>
     <t>R0003</t>
   </si>
   <si>
@@ -165,9 +176,6 @@
     <t>Achí, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, Sucre, Matriz de carga, Productores de arroz mecanizado, Carga agricola</t>
   </si>
   <si>
-    <t>PR0002</t>
-  </si>
-  <si>
     <t>PR0003</t>
   </si>
   <si>
@@ -259,6 +267,9 @@
   </si>
   <si>
     <t>Río Cauca, SNS-Cauca, Software, Navegación fluvial, SIG</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentaciones_power point</t>
   </si>
 </sst>
 </file>
@@ -594,11 +605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="157.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -655,40 +669,40 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>2012</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>25</v>
@@ -705,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -714,40 +728,40 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1">
         <v>2012</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -755,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -782,13 +796,13 @@
         <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>25</v>
@@ -805,49 +819,49 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="1">
         <v>2012</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -855,49 +869,49 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F6" s="1">
         <v>2012</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -905,49 +919,49 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>2012</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/P0019/09_FICHAS/N3-FD-General.xlsx
+++ b/P0019/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0019/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C137C41B-25D9-488F-A47C-B65358FFED0D}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E070D8AE-E27B-4C93-9CB4-DCF1BD8BC839}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="270" windowWidth="10050" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="135">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -95,16 +95,16 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>Presentacion UNINORTE 23-05-12</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12</t>
+    <t>Alt1_Bed level</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Alt1_Bed level.avi</t>
   </si>
   <si>
     <t>Modelación matemática y SNS</t>
   </si>
   <si>
-    <t>Carpeta que contiene catorce (14) videos, trece (13) de estos videos corresponden a resultados de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. El otro video, corresponde a una muestra de la interfaz del aplicativo SNS desarrollado también en este proyecto</t>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS de la altura del nivel de agua</t>
   </si>
   <si>
     <t>Video</t>
@@ -116,36 +116,12 @@
     <t>DESCONOCIDO</t>
   </si>
   <si>
-    <t>Aunque los resultados muestras los resultados de la modelación hidráulica no se encuentran los archivos para correr el modelo</t>
+    <t>Variable:  Nivel de agua</t>
   </si>
   <si>
     <t>Profundidaes, Niveles, Calibración, Caregato, Velocidad, Apicativo, SNS</t>
   </si>
   <si>
-    <t>R0002</t>
-  </si>
-  <si>
-    <t>Presentaciones_power point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenio No.1069-2011 </t>
-  </si>
-  <si>
-    <t>Carpeta que contiene cinco (5) presentaciones en formato editable. Estas presentaciones corresponden a datos preliminares de los sitios que abarca el proyecto e informes de avance</t>
-  </si>
-  <si>
-    <t>Presentación</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>Aunque estas presentaciones no están ligadas directamente a algún producto contienen información relevante sobre el desarrollo del proyecto, en vista de que no se encuentra información de contratación en la carpeta del proyecto</t>
-  </si>
-  <si>
-    <t>Informes de avance, Modelación 2D, Presentaciones, Rompedero Nuevo Mundo, Rompedero Santa María, Modelación matemática</t>
-  </si>
-  <si>
     <t>PR0002</t>
   </si>
   <si>
@@ -161,7 +137,7 @@
     <t>Estudio para la Optimización de Transporte Intermodal de Carga y de Pasajeros entre la Red Fluvial y la Red Vial en el sector de La Mojana</t>
   </si>
   <si>
-    <t>Documento Word que contiene lo correspondiente a los anexos: Anexo 15: Matrices observadas de carga río Cauca, Anexo 16: Productores de arroz mecanizado, Anexo 17: Matrices proyectadas de carga agrícola. Los cuales se mencionan en el informe 2 del convenio No.1069-2011</t>
+    <t>Documento Word que contiene lo correspondiente a los anexos: Anexo 15: Matrices observadas de carga río Cauca, Anexo 16: Productores de arroz mecanizado, Anexo 17: Matrices proyectadas de carga agrícola. Los cuales se mencionan en el informe 2 del convenio No.1069-2011. Algunas variables detalladas en las matrices no contienen información de todos los municipios que conforman La Mojana, o contienen información de municipios que no pertenecen a la región</t>
   </si>
   <si>
     <t>Matriz</t>
@@ -170,7 +146,7 @@
     <t>docx</t>
   </si>
   <si>
-    <t>Algunas variables detalladas en las matrices no contienen información de todos los municipios que conforman La Mojana, o contienen información de municipios que no pertenecen a la región</t>
+    <t xml:space="preserve">Variable: Carga (falta verificar las unidades) de:  abono y fertilizantes, arroz, alimento, cemento, cal, yeso,  derivados del petróleo, frutas, legumbre, hortalizas, </t>
   </si>
   <si>
     <t>Achí, Majagual, Magangué, Nechí, Guaranda, San Jacinto del Cauca, San Benito de Abad, Sucre, Matriz de carga, Productores de arroz mecanizado, Carga agricola</t>
@@ -191,13 +167,13 @@
     <t>Caracterización Hidráulica y Sedimentológica del Río Cauca</t>
   </si>
   <si>
-    <t>Documento Word que contiene lo correspondiente al análisis granulométrico realizado en para la caracterización hidráulica y sedimentológica en el marco del convenio No.1069-2011. El documento contiene los resultados de los análisis de las campañas de medición realizadas en Caucasia, Margento, Colorado, Nechí, Las Varas, Achí, Tres Cruces y Conyongal</t>
+    <t>Documento Word que contiene lo correspondiente al análisis granulométrico realizado en para la caracterización hidráulica y sedimentológica en el marco del convenio No.1069-2011. El documento contiene los resultados de los análisis de las campañas de medición realizadas en Caucasia, Margento, Colorado, Nechí, Las Varas, Achí, Tres Cruces y Conyongal.  El documento contiene resultados de algunos lugares que no pertenecen a la región de La Mojana</t>
   </si>
   <si>
     <t>Análisis granulométrico</t>
   </si>
   <si>
-    <t>El documento contiene resultados de algunos lugares que no pertenecen a la región de La Mojana</t>
+    <t>Variable: diámetro del grano</t>
   </si>
   <si>
     <t>Caucasia, Margento, Colorado, Nechí, Las Varas, Achí, Tres Cruces, Conyongal, Análisis granulométrico, Caracterización hidráulica, Caracterización sedimentológica</t>
@@ -209,19 +185,19 @@
     <t>R0007</t>
   </si>
   <si>
-    <t>PLANOS CRITICOS</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS</t>
+    <t>PLANO 10_morfo_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 10_morfo_70x80.jpg</t>
   </si>
   <si>
     <t>Geología, Geomorfología, Resistencia de Orillas, Multitemporal de Orillas, Dinámica fluvial, Erosión y Sedimentación y Zonas Críticas</t>
   </si>
   <si>
-    <t>Carpeta que contiene nueve (9) mapas anexos al informe 4 del convenio No. 1069 – 2011. Ocho (8) son correspondientes al sector Nuevo mundo – San jacinto, los cuales corresponden a mapas geomorfológico, de resistencia relativa de los materiales a la erosión fluvial, mapa geológico, zonificación de la dinámica fluvial 1985 a 2011, cauce total entre 1985 y diciembre de 2011, procesos de erosión y sedimentación – línea base 2002 y septiembre del 2011, sitios de rompederos y desbordes, mapa general de rompedero Nuevo mundo. El último archivo corresponde a un mapa general de los rompederos de Santa Anita y Pedro Ignacio</t>
-  </si>
-  <si>
-    <t>Mapa</t>
+    <t>El plano  'PLANO 10_morfo_70x80'  presenta una composición cartográfica de las unidades geomorfológicas en el sector Nuevo Mundo - San Jacinto, cercano a la confluencia de los ríos Nechí y Cauca.  Esta composición muestra formas de origen fluvial, fluvio-lacustre, denudacional, denudacional-estructural y denudacional fluvial, representadas mediante patrones de color y textura que requieren interpretación visual para su clasificación completa.  Si bien la leyenda proporciona una clasificación general, no se incluye información cuantitativa como áreas o longitudes de las unidades geomorfológicas.  La imagen, no referenciada espacialmente (sin coordenadas geográficas), es esencial para comprender la dinámica geomorfológica y la vulnerabilidad del territorio. Permite una evaluación cualitativa de la topografía, la influencia de los ríos, y las áreas potencialmente susceptibles a inundaciones o procesos erosivos.  Al ser una composición final sin información vectorial asociada, se recomienda georreferenciarla y, si es posible, vectorizar las diferentes unidades para un análisis espacial más preciso y cuantitativo.  La falta de georreferenciación y datos vectoriales limita su uso directo en análisis cuantitativos, requiriendo de interpretación visual e integración con otras fuentes de información espacial para su análisis completo</t>
+  </si>
+  <si>
+    <t>Imagen</t>
   </si>
   <si>
     <t>JPG</t>
@@ -230,53 +206,248 @@
     <t>GEOLOGÍA</t>
   </si>
   <si>
-    <t>Raster</t>
-  </si>
-  <si>
-    <t>La carpeta ni ninguno de los mapas se mencionan como anexos en el informe 4, sin embargo algunos de estos mapas ya se encuentran implícitos en las figuras del informe</t>
+    <t>Variable:  formas de origen fluvial (categórica: Fcma_ca11, Fcmi, Fba, Fcm_vdr, Fcm_vds, Fda, Ftzab, Ftzam, Ftzaa, Fa_d1, Fa_d2, Facm,  Fpcm) Formas de origen fluvio lacustre (categórica: FL_II1, FI_II2, FI_ir), Formas de origen denudacional fluvial (Categórica: Dfpa, Dfpae, Dfva), Forma deorigen denudacional, (Categórica: Dcb, Dci, Dcbe, Dcr, Dca), Formas de origen denudacional (Categórico: DSc, Aru).</t>
   </si>
   <si>
     <t>Rompedero Nuevo mundo, Zonas críticas, Rompedero de Santa Anita, Rompedero de Pedro Ignacio, río Cauca, San Jacinto, Mapas geomorfológico, Geomorfología, Resistencia de materiales, Erosión fluvial, Geología, Zonificación de la dinámica fluvial, Cauce total Procesos de erosión, Sedimentación, Sitios de rompederos y desbordes, Datos Multitemporales</t>
   </si>
   <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>R0008</t>
-  </si>
-  <si>
-    <t>Anexos</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/SNS/Anexos</t>
-  </si>
-  <si>
-    <t>Sistema Satelital de Asistencia a la Navegación para el río Cauca</t>
-  </si>
-  <si>
-    <t>Carpeta que contiene tres (3) subcarpetas correspondientes a los anexos del informe 5 del convenio No. 1069 – 2011. La carpeta “Anexo 1” contiene el software instalador del sistema SIG WGS-84 de navegación (DVD). La carpeta “Anexo 2” contiene software instalador del sistema SNS-Cauca (DVD), y la carpeta “Anexo 3” contiene el manual de usuario del SNS-Cauca en formato editable docx</t>
-  </si>
-  <si>
-    <t>Aplicación</t>
-  </si>
-  <si>
-    <t>MPK, Application, word</t>
-  </si>
-  <si>
-    <t>SNS-CAUCA es un software desarrollado para que sirva como herramienta de ayuda a la navegación fluvial sobre los ríos más importantes de Colombia, por lo que es un aplicativo relevante para la toma de decisiones</t>
-  </si>
-  <si>
-    <t>Río Cauca, SNS-Cauca, Software, Navegación fluvial, SIG</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentaciones_power point</t>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>Alt1_Profundidades</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Alt1_Profundidades.avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS de la variable profundidad </t>
+  </si>
+  <si>
+    <t>variable:  Profundidad de la columna de agua</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>Alt1_Profundidades_zoom</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Alt1_Profundidades_zoom.avi</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>Alt2_Bed level</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Alt2_Bed level.avi</t>
+  </si>
+  <si>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS de la variable nivel de agua</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>Alt3_Bed level</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Alt3_Bed level.avi</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>Bed_Level_mf_v07</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Bed_Level_mf_v07.avi</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>Calibracion_HD_vel</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Calibracion_HD_vel.avi</t>
+  </si>
+  <si>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS mostrando la calibración de la velocidad del cauda</t>
+  </si>
+  <si>
+    <t>Variable:  Velocidad de la corriente</t>
+  </si>
+  <si>
+    <t>R0015</t>
+  </si>
+  <si>
+    <t>Calibracion_mf_Caregato</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Calibracion_mf_Caregato.avi</t>
+  </si>
+  <si>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS  mostrando la calibración de la velocidad del caudal del tramo de Caregato</t>
+  </si>
+  <si>
+    <t>R0016</t>
+  </si>
+  <si>
+    <t>Esfuezo_Cortante_Calibracion_Morfo</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Esfuezo_Cortante_Calibracion_Morfo.avi</t>
+  </si>
+  <si>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS de la variable tensión cortante</t>
+  </si>
+  <si>
+    <t>Variable: Tensión cortante</t>
+  </si>
+  <si>
+    <t>R0017</t>
+  </si>
+  <si>
+    <t>Profundidad San Jacinto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Profundidad San Jacinto.avi</t>
+  </si>
+  <si>
+    <t>Variable: Profundidad</t>
+  </si>
+  <si>
+    <t>R0018</t>
+  </si>
+  <si>
+    <t>Profundidad_calib_hidrodinamica</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Profundidad_calib_hidrodinamica.avi</t>
+  </si>
+  <si>
+    <t>R0019</t>
+  </si>
+  <si>
+    <t>Velocidad San Jacinto</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Velocidad San Jacinto.avi</t>
+  </si>
+  <si>
+    <t>Imagen dinámica, resultado de la modelación realizada en el estudio hidráulico llevado a cabo en el marco del convenio No. 1069 – 2011. Se muestra la interfaz del aplicativo SNS de la variable velocidad de corriente</t>
+  </si>
+  <si>
+    <t>Variable: Velocidad corriente</t>
+  </si>
+  <si>
+    <t>R0020</t>
+  </si>
+  <si>
+    <t>Velocidades_calib_hidrodinamica</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/Presentaciones/Presentacion UNINORTE 23-05-12/Modelacion Matematica/Velocidades_calib_hidrodinamica.avi</t>
+  </si>
+  <si>
+    <t>R0021</t>
+  </si>
+  <si>
+    <t>PLANO 11_resisten_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 11_resisten_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 11_resisten_70x80' presenta una composición cartográfica de la resistencia relativa de los materiales a la erosión fluvial en el sector Nuevo Mundo - San Jacinto.  Esta composición muestra la distribución espacial de diferentes categorías de resistencia  que va desde:  Resistencia muy alta, resistencia alta, resistencia media, resistencia media-baja, resistencia baja, resistencia muy baja. La imagen permite una evaluación cualitativa de la susceptibilidad a la erosión fluvial en la zona.  Las áreas con baja resistencia identificadas en el mapa son potencialmente vulnerables a procesos erosivos, lo que puede tener implicaciones significativas en la estabilidad de los suelos, la dinámica fluvial y la infraestructura.  La imagen, al no estar georreferenciada, dificulta el análisis cuantitativo preciso.  Si bien proporciona una visión valiosa de la resistencia a la erosión,  la falta de información cuantitativa (como áreas afectadas o cálculos de tasas de erosión) y la ausencia de georreferenciación limitan su uso para análisis espaciales más precisos.  Para un análisis más completo, se recomienda georreferenciar la imagen y, si es posible, vectorizar las diferentes categorías de resistencia para un análisis espacial cuantitativo, permitiendo integraciones con otros datos geoespaciales y permitiendo cuantificar el impacto en aspectos como la vulnerabilidad y la planificación territorial.</t>
+  </si>
+  <si>
+    <t>Variable: Resistencia (categórica:  Resistencia muy alta, resistencia alta, resistencia media, resistencia media-baja, resistencia baja, resistencia muy baja.)</t>
+  </si>
+  <si>
+    <t>R0022</t>
+  </si>
+  <si>
+    <t>PLANO 12_geol_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 12_geol_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 12_geol_70x80' presenta una cartografía geológica del sector Nuevo Mundo - San Jacinto, detallando la distribución de depósitos inconsolidados del Cuaternario.  Específicamente, el mapa muestra diferentes unidades geológicas, incluyendo depósitos aluviales (Qal, Qalr, Qals, Qda, Qalp, Qaldi, Qalpl, Qtz1, Qtz2, Qtz3) y depósitos fluvio-lacustres (Qfl, Qdca, Ngca, Jdse, Pzve, Pznf).  Cada unidad geológica se representa mediante un código y un patrón de color o textura, según la leyenda.  Esta información es fundamental para comprender la geología superficial de la zona y su influencia en procesos como la inundación, la erosión y la estabilidad del terreno.  La imagen permite una evaluación cualitativa de la distribución espacial de estos depósitos, crucial para la planificación del uso del suelo, la gestión de riesgos y la evaluación de la vulnerabilidad. Sin embargo, la ausencia de georreferenciación impide un análisis cuantitativo preciso.  La falta de datos vectoriales y coordenadas geográficas limita la posibilidad de calcular áreas, realizar análisis espaciales avanzados o integrar esta información con otras fuentes de datos geoespaciales.  Para un análisis más robusto, se recomienda georreferenciar el mapa y vectorizar las diferentes unidades geológicas para un análisis cuantitativo que permita  una mejor comprensión de la dinámica geológica y su relación con los aspectos socio-ecológicos de la región.</t>
+  </si>
+  <si>
+    <t>Variable: Depositos aluviales (categórica: Qal, Qalr, Qals, Qda, Qalp, Qaldi, Qalpl, Qtz1, Qtz2, Qtz3), Depósitos fluvio-lacustres (categórica: Qfl, Qdca, Ngca, Jdse, Pzve, Pznf)</t>
+  </si>
+  <si>
+    <t>R0023</t>
+  </si>
+  <si>
+    <t>PLANO 13_dina_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 13_dina_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 13_dina_70x80' muestra la zonificación de la dinámica fluvial en el sector Nuevo Mundo - San Jacinto entre 1985 y 2011.  El mapa categoriza la estabilidad y movilidad del cauce durante este periodo, identificando áreas como cauce inestable, cauce permanente, islas temporales y permanentes, barras de arena temporales y lecho mayor.  Adicionalmente, se clasifican las áreas según su movilidad en categorías de muy baja a muy alta. Esta información es crucial para comprender la evolución del río y su impacto en el paisaje, así como para la planificación de infraestructuras y la gestión de riesgos.  Áreas identificadas como inestables o con alta movilidad presentan un riesgo significativo de inundaciones, erosión y cambios en la configuración del río.  Sin embargo, la ausencia de georreferenciación limita el análisis cuantitativo preciso.  Si bien la imagen proporciona una valiosa descripción cualitativa de la dinámica fluvial, la imposibilidad de calcular áreas exactas, realizar análisis espaciales o integrar la información con otras capas de datos reduce su potencial analítico. Para un análisis más completo se recomienda georreferenciar el mapa y vectorizar las diferentes categorías para poder realizar análisis cuantitativos, permitiendo  la evaluación de cambios en el área de las zonas y una mejor integración con modelos hidrológicos y de gestión de riesgos.</t>
+  </si>
+  <si>
+    <t>Variable:  Estabilidad y movilidad del cauce (categórica: Cauce inestable, cauce permenente en el periodo, isla temporal, isla permanente o estable, barra de arena temporal y lecho o cauce mayor), Movilidad (categórica:  Muy baja, baja, moderada, alta y  muy alta)</t>
+  </si>
+  <si>
+    <t>R0024</t>
+  </si>
+  <si>
+    <t>PLANO 14_ctotal_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 14_ctotal_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 14_ctotal_70x80' presenta la extensión del cauce total del río en el sector Nuevo Mundo - San Jacinto entre 1985 y diciembre de 2011.  El mapa diferencia entre 'Lecho total' y 'Sector de Isla Permanente', indicando la evolución del cauce y la presencia de islas estables durante este periodo.  Esta información es fundamental para comprender los cambios morfológicos del río y su impacto en el entorno, incluyendo la dinámica de inundaciones y la evolución del paisaje.  La identificación de las áreas ocupadas por el lecho total durante este lapso de tiempo es esencial para la planificación del uso del suelo y la gestión de riesgos.  Sin embargo, la falta de georreferenciación impide un análisis cuantitativo preciso.  A pesar de que la imagen ofrece una representación cualitativa de la evolución del cauce, la ausencia de coordenadas geográficas y datos vectoriales limita la posibilidad de calcular áreas, realizar análisis espaciales o integrar esta información con otras capas de datos.  Para un análisis más completo, incluyendo la cuantificación de cambios en el área del cauce, se recomienda georreferenciar el mapa y vectorizar las categorías 'Lecho total' y 'Sector de Isla Permanente'.  Esto permitirá análisis espaciales más robustos y la integración con modelos hidrológicos y de gestión de riesgos.</t>
+  </si>
+  <si>
+    <t>Variable:  Cauce (categórica: Lecho total, Sector de isla permanente)</t>
+  </si>
+  <si>
+    <t>R0025</t>
+  </si>
+  <si>
+    <t>PLANO 15_ero_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 15_ero_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 15_ero_7x80' muestra los procesos de erosión y sedimentación en el sector Nuevo Mundo - San Jacinto entre 2002 y septiembre de 2011.  El mapa categoriza estos procesos en diferentes áreas, diferenciando entre aquellos asociados a orillas (cauce permanente, sedimentación del cauce, erosión de orillas) e islas fluviales (islas permanentes, sectores de islas nuevas sedimentadas, sectores de islas erosionadas).  También incluye categorías para áreas de lecho mayor. Esta información es fundamental para comprender la dinámica fluvial y su impacto en la morfología del río y el entorno.  La identificación de áreas con erosión o sedimentación significativa es crucial para la gestión de riesgos, la planificación de infraestructuras, y la protección de los recursos naturales.  Sin embargo, al igual que los planos anteriores, la ausencia de georreferenciación limita el análisis cuantitativo preciso.  Si bien el mapa proporciona una descripción cualitativa valiosa de los procesos de erosión y sedimentación, la falta de coordenadas geográficas y datos vectoriales impide realizar cálculos de áreas afectadas, análisis espaciales o integración con otras capas de información.  Para mejorar el análisis y obtener información cuantitativa, se recomienda georreferenciar el mapa y vectorizar las diferentes categorías de erosión y sedimentación.  Esto permitirá una evaluación más precisa de la magnitud de estos procesos y su impacto en la región.</t>
+  </si>
+  <si>
+    <t>Variable:  procesos de erosión y sedimentación (categorica: permanente o estable, sedimentación del cauce, Erosión de orillas), Asociados a Islas fluviales (Categórica: Asociados a islas fluviales:  Islas permanente o estable, sector o isla nueva sedimentada, sector de isla erosionada), Otros (categórica:  terreno de lecho mayor permanente o estable y lecho cauca mayor)</t>
+  </si>
+  <si>
+    <t>R0026</t>
+  </si>
+  <si>
+    <t>PLANO 16_romp_desb_70x80</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0019/02_PRODUCTOS/TOMO I INFORME FINAL/TOMO I B/Geolo-geomor/Planos/PLANOS CRITICOS/PLANO 16_romp_desb_70x80.jpg</t>
+  </si>
+  <si>
+    <t>El plano 'PLANO 16_romp_desb_70x80' mapea los sitios de rompederos y desbordes en el sector Nuevo Mundo - San Jacinto.  El mapa identifica áreas con diferentes tipos de rompederos de orillas (RA, RM, RL) y desbordes de orillas (DA, DM, DL), según la leyenda.  También incluye categorías para lecho mayor, cauce activo (septiembre de 2011), islas en el cauce activo (septiembre de 2011), y barras de arena en el cauce activo (septiembre de 2011).  Esta información es crucial para comprender la dinámica fluvial y la vulnerabilidad a inundaciones en la zona.  La identificación de los rompederos y desbordes es fundamental para la planificación de infraestructuras, la gestión de riesgos de inundaciones y la protección de las comunidades.  Sin embargo, la ausencia de georreferenciación limita nuevamente el análisis cuantitativo.  Mientras que la imagen proporciona una valiosa descripción cualitativa de la ubicación de rompederos y desbordes, la falta de coordenadas geográficas y datos vectoriales impide calcular las áreas afectadas, realizar análisis espaciales o integrar esta información con otras capas de datos.  Para un análisis más completo, incluyendo la cuantificación del área de influencia de rompederos y desbordes, se recomienda georreferenciar el mapa y vectorizar las diferentes categorías. Esto permitirá una evaluación más precisa del riesgo de inundación y una mejor planificación territorial.</t>
+  </si>
+  <si>
+    <t>Variable:  zona de rompederos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,16 +455,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -316,13 +499,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,18 +863,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="157.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="157.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +888,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -664,304 +925,1104 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2012</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>76</v>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
